--- a/biology/Botanique/Guyot_double/Guyot_double.xlsx
+++ b/biology/Botanique/Guyot_double/Guyot_double.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Guyot double est un type de taille longue, dérivée du Guyot simple, utilisée dans certains vignobles.
-La taille s'effectue en laissant deux baguettes et deux coursons, de chaque côté du cep. Elle est adaptée aux parcelles et cépages vigoureux. Elle est plus coûteuse que le Guyot simple car plus longue à réaliser[1].
+La taille s'effectue en laissant deux baguettes et deux coursons, de chaque côté du cep. Elle est adaptée aux parcelles et cépages vigoureux. Elle est plus coûteuse que le Guyot simple car plus longue à réaliser.
 </t>
         </is>
       </c>
